--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20115" windowHeight="7740" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="175">
   <si>
     <r>
       <rPr>
@@ -2082,46 +2082,37 @@
     <t>用户账户密码被修改后，进行安全警示或身份认证</t>
   </si>
   <si>
-    <t>REGISTER-ORG-NOTICE</t>
-  </si>
-  <si>
-    <t>注册组织通知</t>
-  </si>
-  <si>
-    <t>包括注册审批，以及注册用户消息提醒，异常处理通知</t>
+    <t>ORG-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>组织消息</t>
+  </si>
+  <si>
+    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>PRO-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>项目消息</t>
+  </si>
+  <si>
+    <t>项目管理过程中触发的一系列事件的通知</t>
+  </si>
+  <si>
+    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <t>敏捷通知</t>
+  </si>
+  <si>
+    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>ORG-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>组织消息</t>
-  </si>
-  <si>
-    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>PRO-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>项目消息</t>
-  </si>
-  <si>
-    <t>项目管理过程中触发的一系列事件的通知</t>
-  </si>
-  <si>
-    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>敏捷通知</t>
-  </si>
-  <si>
-    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
   </si>
   <si>
     <t>APP-SERVICE-NOTICE</t>
@@ -2273,12 +2264,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2348,35 +2339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2384,7 +2347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2406,29 +2369,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2459,6 +2407,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2467,6 +2422,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2488,19 +2459,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2525,13 +2510,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2544,12 +2522,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2593,55 +2565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,13 +2583,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2690,90 +2746,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2880,6 +2852,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2898,23 +2903,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2933,198 +2949,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3591,7 +3563,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
@@ -3620,7 +3592,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3634,7 +3606,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -3655,7 +3627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -3675,7 +3647,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -3689,7 +3661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -3700,7 +3672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3732,7 +3704,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -3755,7 +3727,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -3763,7 +3735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -3771,7 +3743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
@@ -3779,7 +3751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
@@ -3805,7 +3777,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3829,13 +3801,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="K20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="7" max="7" width="44.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="28.8888888888889" customWidth="1"/>
@@ -4404,7 +4376,7 @@
         <v>119</v>
       </c>
       <c r="P20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S20" t="s">
         <v>77</v>
@@ -4440,10 +4412,10 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S21" t="s">
         <v>77</v>
@@ -4461,25 +4433,25 @@
         <v>79</v>
       </c>
       <c r="H22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" t="s">
         <v>124</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" t="s">
         <v>125</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>125</v>
-      </c>
-      <c r="K22" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" t="s">
-        <v>126</v>
       </c>
       <c r="M22" t="s">
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="P22" t="s">
         <v>98</v>
@@ -4557,7 +4529,7 @@
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P24" t="s">
         <v>98</v>
@@ -4578,25 +4550,25 @@
         <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M25" t="s">
         <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P25" t="s">
         <v>98</v>
@@ -4617,25 +4589,25 @@
         <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M26" t="s">
         <v>76</v>
       </c>
       <c r="O26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P26" t="s">
         <v>98</v>
@@ -4656,25 +4628,25 @@
         <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M27" t="s">
         <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P27" t="s">
         <v>98</v>
@@ -4695,25 +4667,25 @@
         <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M28" t="s">
         <v>76</v>
       </c>
       <c r="O28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P28" t="s">
         <v>98</v>
@@ -4722,154 +4694,115 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="5:19">
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" t="s">
-        <v>149</v>
-      </c>
-      <c r="I29" t="s">
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
         <v>150</v>
       </c>
-      <c r="J29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="D30" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L29" t="s">
-        <v>151</v>
-      </c>
-      <c r="M29" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="E30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S29" t="s">
-        <v>77</v>
+      <c r="F30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" t="s">
+        <v>157</v>
+      </c>
+      <c r="N30" t="s">
+        <v>158</v>
+      </c>
+      <c r="O30" t="s">
+        <v>159</v>
+      </c>
+      <c r="P30" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" t="s">
+        <v>162</v>
+      </c>
+      <c r="S30" t="s">
+        <v>163</v>
+      </c>
+      <c r="T30" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G31" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31" t="s">
-        <v>68</v>
-      </c>
-      <c r="M31" t="s">
-        <v>160</v>
-      </c>
-      <c r="N31" t="s">
-        <v>161</v>
-      </c>
-      <c r="O31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P31" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>164</v>
-      </c>
-      <c r="R31" t="s">
-        <v>165</v>
-      </c>
-      <c r="S31" t="s">
-        <v>166</v>
-      </c>
-      <c r="T31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="I32" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="J32" t="s">
         <v>170</v>
       </c>
-      <c r="G33" t="s">
+      <c r="K32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="M32" t="s">
         <v>172</v>
       </c>
-      <c r="J33" t="s">
+      <c r="N32" t="s">
         <v>173</v>
       </c>
-      <c r="K33" t="s">
-        <v>90</v>
-      </c>
-      <c r="L33" s="3" t="s">
+      <c r="O32" t="s">
         <v>174</v>
       </c>
-      <c r="M33" t="s">
-        <v>175</v>
-      </c>
-      <c r="N33" t="s">
-        <v>176</v>
-      </c>
-      <c r="O33" t="s">
-        <v>177</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="P32" t="s">
         <v>70</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <r>
       <rPr>
@@ -1980,6 +1980,18 @@
     <t>1</t>
   </si>
   <si>
+    <t>hpfm_lov-9</t>
+  </si>
+  <si>
+    <t>IAM.GROUP_ID</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>卡片分类</t>
+  </si>
+  <si>
     <t>LOV独立值集表</t>
   </si>
   <si>
@@ -2019,6 +2031,45 @@
     <t>end_date_active(DATE)</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>敏捷管理</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>backlog</t>
+  </si>
+  <si>
+    <t>需求管理</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>DevOps管理</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>值集查询视图头表</t>
   </si>
   <si>
@@ -2065,9 +2116,6 @@
   </si>
   <si>
     <t>平台内置卡片</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>值集查询视图行表</t>
@@ -2117,12 +2165,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2151,6 +2199,13 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei Bold"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2198,6 +2253,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2205,31 +2268,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2243,6 +2291,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2251,70 +2306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2336,9 +2330,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2424,7 +2479,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2436,85 +2545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2532,7 +2569,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2544,61 +2641,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2709,31 +2764,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2753,11 +2784,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2779,26 +2851,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2806,157 +2861,158 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2965,24 +3021,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2990,33 +3046,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3418,10 +3474,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3541666666667" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3541666666667" style="7" customWidth="1"/>
     <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.3541666666667" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.3541666666667" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
     <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
     <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
@@ -3435,79 +3491,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" ht="17" spans="3:7">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" ht="51" spans="3:6">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3515,56 +3571,56 @@
       </c>
     </row>
     <row r="10" ht="51" spans="3:5">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="68" spans="3:5">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="17" spans="3:5">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="32"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" ht="34" spans="3:5">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3574,64 +3630,64 @@
       </c>
     </row>
     <row r="19" ht="17" spans="3:5">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="17" spans="3:4">
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="17" spans="3:4">
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="17" spans="3:4">
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="17" spans="3:4">
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" ht="51" spans="3:3">
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3654,10 +3710,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3813,256 +3869,436 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
+    <row r="9" spans="5:21">
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="5:19">
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G12" t="s">
         <v>83</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
       </c>
       <c r="H12" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12"/>
+      <c r="S12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="5:19">
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13"/>
+      <c r="S13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="5:19">
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14"/>
+      <c r="S14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="5:19">
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15"/>
+      <c r="S15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K17" t="s">
         <v>67</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L17" t="s">
         <v>68</v>
       </c>
-      <c r="M12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>106</v>
-      </c>
-      <c r="R12" t="s">
-        <v>107</v>
-      </c>
-      <c r="S12" t="s">
-        <v>108</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="M17" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" t="s">
+        <v>124</v>
+      </c>
+      <c r="S17" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="5:20">
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="18" spans="5:20">
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
         <v>73</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G18" t="s">
         <v>76</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I18" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J18" t="s">
         <v>77</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K18" t="s">
         <v>79</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L18" t="s">
         <v>80</v>
       </c>
-      <c r="M13" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>111</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="M18" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" t="s">
         <v>77</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K15" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N15" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="I20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" t="s">
+        <v>137</v>
+      </c>
+      <c r="O20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="5:16">
-      <c r="E16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" t="str">
-        <f>值集数据!$E$13</f>
+    <row r="21" spans="5:16">
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="str">
+        <f>值集数据!$E$18</f>
         <v>hpfm_lov_view_header-13</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G21" t="s">
         <v>77</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H21" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
-      <c r="I16" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="I21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" t="s">
         <v>80</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M21" t="s">
         <v>81</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N21" t="s">
         <v>81</v>
       </c>
-      <c r="O16" t="s">
-        <v>125</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="O21" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" t="s">
         <v>81</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <r>
       <rPr>
@@ -2068,6 +2068,12 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>resource-management</t>
+  </si>
+  <si>
+    <t>资源管理</t>
   </si>
   <si>
     <t>值集查询视图头表</t>
@@ -2165,10 +2171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2247,9 +2253,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2261,8 +2289,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2276,39 +2366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2321,42 +2381,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2367,30 +2395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2479,91 +2485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2575,37 +2497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2623,7 +2515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2635,7 +2527,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2647,13 +2623,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2763,23 +2769,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2801,35 +2810,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2849,11 +2834,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2861,148 +2867,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3710,10 +3716,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3992,7 +3998,6 @@
       <c r="O12" t="s">
         <v>102</v>
       </c>
-      <c r="P12"/>
       <c r="S12" t="s">
         <v>81</v>
       </c>
@@ -4029,7 +4034,6 @@
       <c r="O13" t="s">
         <v>105</v>
       </c>
-      <c r="P13"/>
       <c r="S13" t="s">
         <v>81</v>
       </c>
@@ -4066,7 +4070,6 @@
       <c r="O14" t="s">
         <v>108</v>
       </c>
-      <c r="P14"/>
       <c r="S14" t="s">
         <v>81</v>
       </c>
@@ -4103,202 +4106,237 @@
       <c r="O15" t="s">
         <v>111</v>
       </c>
-      <c r="P15"/>
       <c r="S15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
+    <row r="16" spans="5:19">
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C18" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>67</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>68</v>
       </c>
-      <c r="M17" t="s">
-        <v>119</v>
-      </c>
-      <c r="N17" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="M18" t="s">
         <v>121</v>
       </c>
-      <c r="P17" t="s">
+      <c r="N18" t="s">
         <v>122</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="O18" t="s">
         <v>123</v>
       </c>
-      <c r="R17" t="s">
+      <c r="P18" t="s">
         <v>124</v>
       </c>
-      <c r="S17" t="s">
+      <c r="Q18" t="s">
         <v>125</v>
       </c>
-      <c r="T17" t="s">
+      <c r="R18" t="s">
+        <v>126</v>
+      </c>
+      <c r="S18" t="s">
+        <v>127</v>
+      </c>
+      <c r="T18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="5:20">
-      <c r="E18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" t="s">
+    <row r="19" spans="5:20">
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
         <v>73</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>76</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>76</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I19" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>77</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" t="s">
         <v>79</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>80</v>
       </c>
-      <c r="M18" t="s">
-        <v>127</v>
-      </c>
-      <c r="N18" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="M19" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" t="s">
         <v>102</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R19" t="s">
         <v>77</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C21" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G20" t="s">
+      <c r="E21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="F21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J20" t="s">
+      <c r="G21" t="s">
         <v>134</v>
       </c>
-      <c r="K20" t="s">
+      <c r="H21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="L21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="O20" t="s">
+      <c r="M21" t="s">
         <v>138</v>
       </c>
-      <c r="P20" t="s">
+      <c r="N21" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="5:16">
-      <c r="E21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" t="str">
-        <f>值集数据!$E$18</f>
+    <row r="22" spans="5:16">
+      <c r="E22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" t="str">
+        <f>值集数据!$E$19</f>
         <v>hpfm_lov_view_header-13</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>77</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H22" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
-      <c r="I21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="I22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" t="s">
         <v>102</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>80</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M22" t="s">
         <v>81</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N22" t="s">
         <v>81</v>
       </c>
-      <c r="O21" t="s">
-        <v>141</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="O22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" t="s">
         <v>81</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B8A87D-A47F-3B48-8469-DAAA0B1332B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11920" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,31 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="184">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -37,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -46,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +79,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -67,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -76,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -85,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -94,6 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -103,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -112,6 +139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -152,6 +181,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -161,6 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -170,6 +201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -179,6 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -188,6 +221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -200,6 +234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -210,6 +245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -220,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -230,6 +267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -240,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -251,6 +290,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -260,6 +300,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -271,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -280,6 +322,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -300,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -309,6 +354,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -329,6 +376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -338,6 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -347,6 +396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -356,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -365,6 +416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -374,6 +426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -383,6 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -392,6 +446,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -401,6 +456,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -430,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -439,6 +496,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -448,6 +506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -457,6 +516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -466,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -475,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -484,6 +546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -493,6 +556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -513,6 +578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -522,6 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -531,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -540,6 +608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -549,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -559,6 +629,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -568,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -577,6 +649,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -586,6 +659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -596,6 +670,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -605,6 +680,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -614,6 +690,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -634,6 +712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -643,6 +722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -652,6 +732,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -661,6 +742,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -675,6 +757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -684,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -693,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -702,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -711,6 +797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -720,6 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -729,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -738,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -747,6 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -756,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -776,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -785,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -805,6 +901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -815,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -834,6 +933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -843,6 +943,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -852,6 +953,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -861,6 +963,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -875,6 +978,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -884,6 +988,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -893,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -902,6 +1008,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -911,6 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -921,6 +1029,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -930,6 +1039,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -940,6 +1050,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -949,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -959,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -968,6 +1081,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -979,6 +1093,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -988,6 +1103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -998,6 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1007,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1023,6 +1141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1032,6 +1151,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1043,6 +1163,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1052,6 +1173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1072,6 +1195,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1081,6 +1205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1090,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1101,6 +1227,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1110,6 +1237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1119,6 +1247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1140,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1149,6 +1280,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1158,6 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1167,6 +1300,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1176,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1185,6 +1320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1335,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1208,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1217,6 +1355,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1226,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1235,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1244,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1253,6 +1395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1262,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1271,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1304,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1313,6 +1461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1477,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1346,6 +1497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1355,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1378,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1387,6 +1542,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1396,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1405,6 +1562,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1414,6 +1572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1424,6 +1583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1433,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1447,6 +1608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1456,6 +1618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1465,6 +1628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1474,6 +1638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1483,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1492,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1502,6 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1511,6 +1679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1522,6 +1691,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1561,6 +1734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1570,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1579,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1588,6 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1597,6 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1606,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1616,6 +1795,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1625,6 +1805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1634,6 +1815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1643,6 +1825,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1652,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1661,6 +1845,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1670,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1680,6 +1866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1689,6 +1876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1698,6 +1886,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1707,6 +1896,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1716,6 +1906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1725,6 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1734,6 +1926,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1743,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1753,6 +1947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1992,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1803,6 +2002,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1812,6 +2012,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +2024,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1832,6 +2034,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1841,6 +2044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1850,6 +2054,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1860,6 +2065,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2136,9 +2342,6 @@
     <t>#view_header_id</t>
   </si>
   <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
     <t>display:zh_CN</t>
   </si>
   <si>
@@ -2164,19 +2367,147 @@
   </si>
   <si>
     <t>200</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hpfm_lov-10</t>
+  </si>
+  <si>
+    <t>IAM.TENANT.ROLE.NO.ENCRYPT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>查租户角色，不带加密</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tenant role without encrypt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>/choerodon/v1/{organizationId}/roles/paging</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypt_field</t>
+  </si>
+  <si>
+    <t>public_flag</t>
+  </si>
+  <si>
+    <t>decrypt_field</t>
+  </si>
+  <si>
+    <t>request_method</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Select tenant role</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-14</t>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>Role Name</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>角色层级</t>
+  </si>
+  <si>
+    <t>Role Level</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>levelMeaning</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>角色编码</t>
+  </si>
+  <si>
+    <t>Role code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>角色路径</t>
+  </si>
+  <si>
+    <t>levelPath</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-17</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-18</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-19</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-20</t>
+  </si>
+  <si>
+    <t>tenant_id:zh_CN</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role path</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2187,37 +2518,38 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei Bold"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2225,187 +2557,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2425,28 +2612,45 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2477,194 +2681,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2765,254 +2783,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3027,15 +2803,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3049,9 +2816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3061,9 +2825,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3084,59 +2845,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3209,6 +2939,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3466,279 +3199,288 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3541666666667" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.3541666666667" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.3541666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="24"/>
+    <row r="2" spans="1:8">
+      <c r="E2" s="20"/>
     </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
-    <row r="4" ht="17" spans="3:7">
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="28"/>
     </row>
-    <row r="9" ht="51" spans="3:6">
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:8" ht="57">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51" spans="3:5">
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="1:8" ht="57">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="68" spans="3:5">
-      <c r="C11" s="15" t="s">
+    <row r="11" spans="1:8" ht="76">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="3:5">
-      <c r="C12" s="15" t="s">
+    <row r="12" spans="1:8" ht="19">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="33"/>
+    <row r="13" spans="1:8">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="33"/>
+    <row r="14" spans="1:8">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="28"/>
     </row>
-    <row r="15" ht="34" spans="3:5">
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="1:8" ht="38">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="3:5">
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
-    <row r="20" ht="17" spans="3:4">
-      <c r="C20" s="23" t="s">
+    <row r="20" spans="3:5">
+      <c r="C20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="3:4">
-      <c r="C21" s="23" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="3:4">
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="3:4">
-      <c r="C23" s="23" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="25" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="33"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="16" t="s">
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="33"/>
     </row>
-    <row r="27" ht="51" spans="3:3">
-      <c r="C27" s="26" t="s">
+    <row r="27" spans="3:5" ht="57">
+      <c r="C27" s="22" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:V22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="27.2847222222222" customWidth="1"/>
-    <col min="6" max="6" width="31.1388888888889" customWidth="1"/>
-    <col min="7" max="7" width="30.2847222222222" customWidth="1"/>
-    <col min="8" max="8" width="20.3680555555556" customWidth="1"/>
-    <col min="9" max="9" width="22.3402777777778" customWidth="1"/>
-    <col min="10" max="10" width="24.8819444444444" customWidth="1"/>
-    <col min="11" max="11" width="57.6388888888889" customWidth="1"/>
-    <col min="12" max="12" width="46.1736111111111" customWidth="1"/>
-    <col min="14" max="14" width="19.3263888888889" customWidth="1"/>
-    <col min="17" max="17" width="24.0763888888889" customWidth="1"/>
-    <col min="18" max="18" width="22.9166666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57.5703125" customWidth="1"/>
+    <col min="12" max="12" width="46.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="41.28515625" customWidth="1"/>
+    <col min="18" max="18" width="39.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="11" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" customWidth="1"/>
+    <col min="26" max="27" width="17" customWidth="1"/>
+    <col min="28" max="28" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3752,7 +3494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:28">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3763,7 +3505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3830,8 +3572,26 @@
       <c r="V7" t="s">
         <v>71</v>
       </c>
+      <c r="W7" t="s">
+        <v>151</v>
+      </c>
+      <c r="X7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="8" spans="5:21">
+    <row r="8" spans="1:28">
       <c r="E8" t="s">
         <v>72</v>
       </c>
@@ -3875,7 +3635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="5:21">
+    <row r="9" spans="1:28">
       <c r="E9" t="s">
         <v>82</v>
       </c>
@@ -3907,102 +3667,122 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
+    <row r="10" spans="1:28">
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>92</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>93</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N12" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O12" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q12" t="s">
         <v>97</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R12" t="s">
         <v>98</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="5:19">
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="5:19">
+    <row r="13" spans="1:28">
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -4014,31 +3794,31 @@
         <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="M13" t="s">
         <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="5:19">
+    <row r="14" spans="1:28">
       <c r="E14" t="s">
         <v>99</v>
       </c>
@@ -4050,31 +3830,31 @@
         <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
         <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="5:19">
+    <row r="15" spans="1:28">
       <c r="E15" t="s">
         <v>99</v>
       </c>
@@ -4086,31 +3866,31 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M15" t="s">
         <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="5:19">
+    <row r="16" spans="1:28">
       <c r="E16" t="s">
         <v>99</v>
       </c>
@@ -4122,227 +3902,534 @@
         <v>83</v>
       </c>
       <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>111</v>
+      </c>
+      <c r="S16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
         <v>112</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>113</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J17" t="s">
         <v>113</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" t="s">
         <v>113</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" t="s">
         <v>113</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>50</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>118</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
         <v>67</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M19" t="s">
         <v>68</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N19" t="s">
         <v>121</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O19" t="s">
         <v>122</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P19" t="s">
         <v>123</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q19" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R19" t="s">
         <v>125</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S19" t="s">
         <v>126</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T19" t="s">
         <v>127</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U19" t="s">
         <v>70</v>
       </c>
+      <c r="V19" t="s">
+        <v>155</v>
+      </c>
+      <c r="W19" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="19" spans="5:20">
-      <c r="E19" t="s">
+    <row r="20" spans="1:23">
+      <c r="E20" t="s">
         <v>128</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>73</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>76</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>76</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I20" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>77</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" t="s">
         <v>79</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M20" t="s">
         <v>80</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N20" t="s">
         <v>129</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R20" t="s">
         <v>102</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S20" t="s">
         <v>77</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
+    <row r="21" spans="1:23">
+      <c r="E21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" t="s">
+        <v>159</v>
+      </c>
+      <c r="R21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S21" t="s">
+        <v>77</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>143</v>
+      </c>
+      <c r="W21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K23" t="s">
         <v>135</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L23" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K21" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="N23" t="s">
         <v>137</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O23" t="s">
         <v>138</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P23" t="s">
         <v>139</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="E24" t="s">
         <v>140</v>
       </c>
-      <c r="P21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="5:16">
-      <c r="E22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" t="str">
-        <f>值集数据!$E$19</f>
+      <c r="F24" t="str">
+        <f>值集数据!$E$20</f>
         <v>hpfm_lov_view_header-13</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G24" t="s">
         <v>77</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s">
         <v>142</v>
       </c>
-      <c r="J22" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" t="s">
-        <v>80</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="Q24" t="s">
         <v>81</v>
       </c>
-      <c r="N22" t="s">
+    </row>
+    <row r="25" spans="1:23">
+      <c r="E25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" t="str">
+        <f>值集数据!$E$21</f>
+        <v>hpfm_lov_view_header-14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" t="s">
         <v>81</v>
       </c>
-      <c r="O22" t="s">
+      <c r="M25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25" t="s">
         <v>143</v>
       </c>
-      <c r="P22" t="s">
+      <c r="V25" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="E26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" t="str">
+        <f>值集数据!$E$21</f>
+        <v>hpfm_lov_view_header-14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" t="s">
+        <v>170</v>
+      </c>
+      <c r="N26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26" t="s">
+        <v>143</v>
+      </c>
+      <c r="V26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="E27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" t="str">
+        <f>值集数据!$E$21</f>
+        <v>hpfm_lov_view_header-14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U27" t="s">
+        <v>143</v>
+      </c>
+      <c r="V27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="E28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" t="str">
+        <f>值集数据!$E$21</f>
+        <v>hpfm_lov_view_header-14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" t="s">
+        <v>176</v>
+      </c>
+      <c r="N28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s">
+        <v>143</v>
+      </c>
+      <c r="V28" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B8A87D-A47F-3B48-8469-DAAA0B1332B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AF803F-E10C-394B-9E79-F0A0C86DBDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -2421,9 +2421,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>Select tenant role</t>
   </si>
   <si>
     <t>417</t>
@@ -2845,11 +2842,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2860,7 +2858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3229,11 +3226,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
@@ -3246,17 +3243,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
@@ -3367,11 +3364,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="19" t="s">
@@ -3448,8 +3445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3466,7 +3463,7 @@
     <col min="12" max="12" width="46.140625" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="41.28515625" customWidth="1"/>
     <col min="18" max="18" width="39.140625" customWidth="1"/>
@@ -3671,7 +3668,7 @@
       <c r="E10" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="32" t="s">
         <v>146</v>
       </c>
       <c r="G10" t="s">
@@ -3680,16 +3677,16 @@
       <c r="H10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="32" t="s">
         <v>148</v>
       </c>
       <c r="M10" t="s">
@@ -3698,10 +3695,10 @@
       <c r="N10" t="s">
         <v>77</v>
       </c>
-      <c r="Q10" s="37" t="s">
+      <c r="Q10" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="32" t="s">
         <v>150</v>
       </c>
       <c r="T10">
@@ -3713,7 +3710,7 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Z10" s="37" t="s">
+      <c r="Z10" s="32" t="s">
         <v>157</v>
       </c>
       <c r="AA10" t="s">
@@ -3991,10 +3988,10 @@
         <v>120</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="L19" t="s">
         <v>67</v>
@@ -4080,15 +4077,15 @@
     </row>
     <row r="21" spans="1:23">
       <c r="E21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="32" t="s">
         <v>148</v>
       </c>
       <c r="I21" t="str">
@@ -4101,20 +4098,17 @@
       <c r="K21" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="32" t="s">
         <v>150</v>
       </c>
       <c r="M21" t="s">
         <v>158</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="O21" s="32" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" t="s">
-        <v>159</v>
       </c>
       <c r="R21" t="s">
         <v>102</v>
@@ -4129,11 +4123,11 @@
         <v>143</v>
       </c>
       <c r="W21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
@@ -4154,11 +4148,11 @@
       <c r="F23" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>120</v>
@@ -4233,7 +4227,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="E25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" t="str">
         <f>值集数据!$E$21</f>
@@ -4250,10 +4244,10 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" t="s">
-        <v>165</v>
       </c>
       <c r="L25" t="s">
         <v>81</v>
@@ -4268,7 +4262,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q25" t="s">
         <v>81</v>
@@ -4282,7 +4276,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="E26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F26" t="str">
         <f>值集数据!$E$21</f>
@@ -4299,16 +4293,16 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" t="s">
         <v>167</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>168</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>169</v>
-      </c>
-      <c r="M26" t="s">
-        <v>170</v>
       </c>
       <c r="N26" t="s">
         <v>77</v>
@@ -4317,7 +4311,7 @@
         <v>81</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q26" t="s">
         <v>81</v>
@@ -4331,7 +4325,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="E27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F27" t="str">
         <f>值集数据!$E$21</f>
@@ -4348,16 +4342,16 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" t="s">
         <v>172</v>
-      </c>
-      <c r="K27" t="s">
-        <v>173</v>
       </c>
       <c r="L27" t="s">
         <v>144</v>
       </c>
       <c r="M27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N27" t="s">
         <v>81</v>
@@ -4366,7 +4360,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q27" t="s">
         <v>81</v>
@@ -4375,12 +4369,12 @@
         <v>143</v>
       </c>
       <c r="V27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="E28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28" t="str">
         <f>值集数据!$E$21</f>
@@ -4397,16 +4391,16 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J28" t="s">
-        <v>175</v>
-      </c>
-      <c r="K28" s="37" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>182</v>
       </c>
       <c r="L28" t="s">
         <v>144</v>
       </c>
       <c r="M28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s">
         <v>77</v>
@@ -4415,7 +4409,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q28" t="s">
         <v>81</v>
@@ -4424,7 +4418,7 @@
         <v>143</v>
       </c>
       <c r="V28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AF803F-E10C-394B-9E79-F0A0C86DBDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FED2E9-55D6-DA40-8A81-DF6589A21D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3445,8 +3445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3631,6 +3631,9 @@
       <c r="U8" t="s">
         <v>81</v>
       </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="E9" t="s">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FED2E9-55D6-DA40-8A81-DF6589A21D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2112EA41-66E8-B840-BBFE-146386239397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -2174,9 +2174,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>/v1/dashboards/internal</t>
-  </si>
-  <si>
     <t>dashboardId</t>
   </si>
   <si>
@@ -2497,6 +2494,10 @@
   </si>
   <si>
     <t>Role path</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/dashboards/internal</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -3446,7 +3447,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3570,22 +3571,22 @@
         <v>71</v>
       </c>
       <c r="W7" t="s">
+        <v>150</v>
+      </c>
+      <c r="X7" t="s">
         <v>151</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>152</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>153</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>154</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>155</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3616,63 +3617,72 @@
       <c r="M8" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8" t="s">
         <v>78</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>79</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>80</v>
       </c>
-      <c r="T8" t="s">
-        <v>81</v>
-      </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X8">
         <v>0</v>
+      </c>
+      <c r="Z8" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>83</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>84</v>
       </c>
-      <c r="I9" t="s">
-        <v>85</v>
-      </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
         <v>77</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="G10" t="s">
         <v>74</v>
@@ -3681,16 +3691,16 @@
         <v>75</v>
       </c>
       <c r="I10" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="32" t="s">
-        <v>148</v>
-      </c>
       <c r="K10" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>148</v>
       </c>
       <c r="M10" t="s">
         <v>77</v>
@@ -3699,28 +3709,28 @@
         <v>77</v>
       </c>
       <c r="Q10" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="R10" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Z10" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB10" t="s">
         <v>143</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -3731,28 +3741,28 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" t="s">
         <v>89</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" t="s">
         <v>91</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>92</v>
-      </c>
-      <c r="J12" t="s">
-        <v>93</v>
       </c>
       <c r="K12" t="s">
         <v>60</v>
@@ -3764,19 +3774,19 @@
         <v>62</v>
       </c>
       <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" t="s">
         <v>94</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>97</v>
-      </c>
-      <c r="R12" t="s">
-        <v>98</v>
       </c>
       <c r="S12" t="s">
         <v>70</v>
@@ -3784,173 +3794,173 @@
     </row>
     <row r="13" spans="1:28">
       <c r="E13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" t="s">
         <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
         <v>103</v>
       </c>
-      <c r="I14" t="s">
-        <v>104</v>
-      </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
         <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="E15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
         <v>106</v>
       </c>
-      <c r="I15" t="s">
-        <v>107</v>
-      </c>
       <c r="J15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s">
         <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
         <v>109</v>
       </c>
-      <c r="I16" t="s">
-        <v>110</v>
-      </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M16" t="s">
         <v>77</v>
       </c>
       <c r="O16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="E17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
         <v>112</v>
       </c>
-      <c r="I17" t="s">
-        <v>113</v>
-      </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3970,31 +3980,31 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" t="s">
         <v>117</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>118</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="J19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="L19" t="s">
         <v>67</v>
@@ -4003,39 +4013,39 @@
         <v>68</v>
       </c>
       <c r="N19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" t="s">
         <v>121</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>122</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>123</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>124</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>125</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>126</v>
-      </c>
-      <c r="T19" t="s">
-        <v>127</v>
       </c>
       <c r="U19" t="s">
         <v>70</v>
       </c>
       <c r="V19" t="s">
+        <v>154</v>
+      </c>
+      <c r="W19" t="s">
         <v>155</v>
-      </c>
-      <c r="W19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
         <v>73</v>
@@ -4057,39 +4067,39 @@
         <v>77</v>
       </c>
       <c r="L20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" t="s">
         <v>79</v>
       </c>
-      <c r="M20" t="s">
-        <v>80</v>
-      </c>
       <c r="N20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S20" t="s">
         <v>77</v>
       </c>
       <c r="U20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="E21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="H21" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>148</v>
       </c>
       <c r="I21" t="str">
         <f>值集数据!$E$10</f>
@@ -4102,19 +4112,19 @@
         <v>77</v>
       </c>
       <c r="L21" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N21" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="O21" s="32" t="s">
-        <v>148</v>
-      </c>
       <c r="R21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S21" t="s">
         <v>77</v>
@@ -4123,10 +4133,10 @@
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -4140,46 +4150,46 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>134</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L23" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" t="s">
         <v>136</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>137</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" t="s">
-        <v>139</v>
       </c>
       <c r="Q23" t="s">
         <v>70</v>
@@ -4187,7 +4197,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="E24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" t="str">
         <f>值集数据!$E$20</f>
@@ -4204,33 +4214,33 @@
         <v>hpfm_lov-8</v>
       </c>
       <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" t="s">
         <v>141</v>
       </c>
-      <c r="K24" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="Q24" t="s">
         <v>80</v>
-      </c>
-      <c r="N24" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="E25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" t="str">
         <f>值集数据!$E$21</f>
@@ -4247,39 +4257,39 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J25" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" t="s">
         <v>163</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="s">
         <v>164</v>
       </c>
-      <c r="L25" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" t="s">
-        <v>158</v>
-      </c>
-      <c r="N25" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" t="s">
-        <v>165</v>
-      </c>
       <c r="Q25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="E26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" t="str">
         <f>值集数据!$E$21</f>
@@ -4296,39 +4306,39 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" t="s">
         <v>166</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>167</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>168</v>
-      </c>
-      <c r="M26" t="s">
-        <v>169</v>
       </c>
       <c r="N26" t="s">
         <v>77</v>
       </c>
       <c r="O26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="E27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F27" t="str">
         <f>值集数据!$E$21</f>
@@ -4345,39 +4355,39 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" t="s">
         <v>171</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" t="s">
         <v>172</v>
       </c>
-      <c r="L27" t="s">
-        <v>144</v>
-      </c>
-      <c r="M27" t="s">
-        <v>173</v>
-      </c>
       <c r="N27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="E28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F28" t="str">
         <f>值集数据!$E$21</f>
@@ -4394,34 +4404,34 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J28" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" t="s">
         <v>174</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="L28" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" t="s">
-        <v>175</v>
       </c>
       <c r="N28" t="s">
         <v>77</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2112EA41-66E8-B840-BBFE-146386239397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69F4C5-BAAA-3D4C-BC9C-D0A3820B0AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -3447,7 +3447,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="X9" sqref="X9:AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3676,6 +3676,18 @@
       <c r="U9" t="s">
         <v>80</v>
       </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:28">
       <c r="E10" t="s">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69F4C5-BAAA-3D4C-BC9C-D0A3820B0AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE2AAA6-45E5-8B4E-AAA9-C23F67A619BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -3446,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9:AB9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20:W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -4099,6 +4099,12 @@
       <c r="U20" t="s">
         <v>80</v>
       </c>
+      <c r="V20" t="s">
+        <v>142</v>
+      </c>
+      <c r="W20" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="E21" t="s">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE2AAA6-45E5-8B4E-AAA9-C23F67A619BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AC617F-B5B6-4742-8F0D-87093CB9AE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="179">
   <si>
     <r>
       <rPr>
@@ -2366,9 +2366,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>now</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -2407,20 +2404,11 @@
     <t>request_method</t>
   </si>
   <si>
-    <t>last_update_date</t>
-  </si>
-  <si>
-    <t>last_updated_by</t>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>417</t>
   </si>
   <si>
     <t>hpfm_lov_view_header-14</t>
@@ -3444,10 +3432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20:W20"/>
+    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25:V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3471,6 +3459,7 @@
     <col min="19" max="19" width="16.85546875" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
     <col min="23" max="23" width="13.140625" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
     <col min="25" max="25" width="13.42578125" customWidth="1"/>
@@ -3478,7 +3467,7 @@
     <col min="28" max="28" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3492,7 +3481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:26">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3503,7 +3492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3571,25 +3560,19 @@
         <v>71</v>
       </c>
       <c r="W7" t="s">
+        <v>149</v>
+      </c>
+      <c r="X7" t="s">
         <v>150</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>151</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>152</v>
       </c>
-      <c r="Z7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+    </row>
+    <row r="8" spans="1:26">
       <c r="E8" t="s">
         <v>72</v>
       </c>
@@ -3618,7 +3601,7 @@
         <v>77</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="R8" t="s">
         <v>78</v>
@@ -3636,16 +3619,10 @@
         <v>0</v>
       </c>
       <c r="Z8" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="E9" t="s">
         <v>81</v>
       </c>
@@ -3680,21 +3657,15 @@
         <v>0</v>
       </c>
       <c r="Z9" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="E10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="E10" t="s">
+      <c r="F10" s="32" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>145</v>
       </c>
       <c r="G10" t="s">
         <v>74</v>
@@ -3703,16 +3674,16 @@
         <v>75</v>
       </c>
       <c r="I10" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="32" t="s">
-        <v>147</v>
-      </c>
       <c r="K10" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>147</v>
       </c>
       <c r="M10" t="s">
         <v>77</v>
@@ -3721,10 +3692,10 @@
         <v>77</v>
       </c>
       <c r="Q10" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="R10" s="32" t="s">
         <v>148</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>149</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -3736,16 +3707,10 @@
         <v>0</v>
       </c>
       <c r="Z10" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3804,7 +3769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:26">
       <c r="E13" t="s">
         <v>98</v>
       </c>
@@ -3840,7 +3805,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:26">
       <c r="E14" t="s">
         <v>98</v>
       </c>
@@ -3876,7 +3841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:26">
       <c r="E15" t="s">
         <v>98</v>
       </c>
@@ -3912,7 +3877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:26">
       <c r="E16" t="s">
         <v>98</v>
       </c>
@@ -3948,7 +3913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:21">
       <c r="E17" t="s">
         <v>98</v>
       </c>
@@ -3984,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -4013,10 +3978,10 @@
         <v>119</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
         <v>67</v>
@@ -4048,14 +4013,8 @@
       <c r="U19" t="s">
         <v>70</v>
       </c>
-      <c r="V19" t="s">
-        <v>154</v>
-      </c>
-      <c r="W19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:21">
       <c r="E20" t="s">
         <v>127</v>
       </c>
@@ -4099,25 +4058,19 @@
       <c r="U20" t="s">
         <v>80</v>
       </c>
-      <c r="V20" t="s">
-        <v>142</v>
-      </c>
-      <c r="W20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+    </row>
+    <row r="21" spans="1:21">
       <c r="E21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F21" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="H21" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>147</v>
       </c>
       <c r="I21" t="str">
         <f>值集数据!$E$10</f>
@@ -4130,16 +4083,16 @@
         <v>77</v>
       </c>
       <c r="L21" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N21" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="O21" s="32" t="s">
-        <v>147</v>
       </c>
       <c r="R21" t="s">
         <v>101</v>
@@ -4150,17 +4103,11 @@
       <c r="U21">
         <v>1</v>
       </c>
-      <c r="V21" t="s">
-        <v>142</v>
-      </c>
-      <c r="W21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+    </row>
+    <row r="22" spans="1:21">
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -4180,10 +4127,10 @@
         <v>132</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>119</v>
@@ -4213,7 +4160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:21">
       <c r="E24" t="s">
         <v>139</v>
       </c>
@@ -4256,9 +4203,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:21">
       <c r="E25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F25" t="str">
         <f>值集数据!$E$21</f>
@@ -4275,16 +4222,16 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s">
         <v>80</v>
       </c>
       <c r="M25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N25" t="s">
         <v>80</v>
@@ -4293,21 +4240,15 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q25" t="s">
         <v>80</v>
       </c>
-      <c r="U25" t="s">
-        <v>142</v>
-      </c>
-      <c r="V25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+    </row>
+    <row r="26" spans="1:21">
       <c r="E26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F26" t="str">
         <f>值集数据!$E$21</f>
@@ -4324,16 +4265,16 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N26" t="s">
         <v>77</v>
@@ -4342,21 +4283,15 @@
         <v>80</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q26" t="s">
         <v>80</v>
       </c>
-      <c r="U26" t="s">
-        <v>142</v>
-      </c>
-      <c r="V26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+    </row>
+    <row r="27" spans="1:21">
       <c r="E27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F27" t="str">
         <f>值集数据!$E$21</f>
@@ -4373,16 +4308,16 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s">
         <v>80</v>
@@ -4391,21 +4326,15 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q27" t="s">
         <v>80</v>
       </c>
-      <c r="U27" t="s">
-        <v>142</v>
-      </c>
-      <c r="V27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+    </row>
+    <row r="28" spans="1:21">
       <c r="E28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F28" t="str">
         <f>值集数据!$E$21</f>
@@ -4422,16 +4351,16 @@
         <v>hpfm_lov-10</v>
       </c>
       <c r="J28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N28" t="s">
         <v>77</v>
@@ -4440,16 +4369,10 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q28" t="s">
         <v>80</v>
-      </c>
-      <c r="U28" t="s">
-        <v>142</v>
-      </c>
-      <c r="V28" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-lov.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD014579-56F5-0344-8D38-DC21F02D8EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11920" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,31 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="183">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -37,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -46,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +79,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -67,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -76,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -85,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -94,6 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -103,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -112,6 +139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -152,6 +181,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -161,6 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -170,6 +201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -179,6 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -188,6 +221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -200,6 +234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -210,6 +245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -220,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -230,6 +267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -240,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -251,6 +290,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -260,6 +300,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -271,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -280,6 +322,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -300,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -309,6 +354,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -329,6 +376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -338,6 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -347,6 +396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -356,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -365,6 +416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -374,6 +426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -383,6 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -392,6 +446,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -401,6 +456,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -430,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -439,6 +496,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -448,6 +506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -457,6 +516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -466,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -475,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -484,6 +546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -493,6 +556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -513,6 +578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -522,6 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -531,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -540,6 +608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -549,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -559,6 +629,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -568,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -577,6 +649,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -586,6 +659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -596,6 +670,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -605,6 +680,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -614,6 +690,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -634,6 +712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -643,6 +722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -652,6 +732,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -661,6 +742,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -675,6 +757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -684,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -693,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -702,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -711,6 +797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -720,6 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -729,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -738,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -747,6 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -756,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -776,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -785,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -805,6 +901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -815,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -834,6 +933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -843,6 +943,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -852,6 +953,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -861,6 +963,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -875,6 +978,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -884,6 +988,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -893,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -902,6 +1008,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -911,6 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -921,6 +1029,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -930,6 +1039,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -940,6 +1050,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -949,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -959,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -968,6 +1081,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -979,6 +1093,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -988,6 +1103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -998,6 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1007,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1023,6 +1141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1032,6 +1151,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1043,6 +1163,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1052,6 +1173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1072,6 +1195,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1081,6 +1205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1090,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1101,6 +1227,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1110,6 +1237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1119,6 +1247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1140,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1149,6 +1280,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1158,6 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1167,6 +1300,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1176,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1185,6 +1320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1335,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1208,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1217,6 +1355,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1226,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1235,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1244,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1253,6 +1395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1262,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1271,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1304,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1313,6 +1461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1477,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1346,6 +1497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1355,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1378,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1387,6 +1542,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1396,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1405,6 +1562,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1414,6 +1572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1424,6 +1583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1433,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1447,6 +1608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1456,6 +1618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1465,6 +1628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1474,6 +1638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1483,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1492,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1502,6 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1511,6 +1679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1522,6 +1691,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1561,6 +1734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1570,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1579,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1588,6 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1597,6 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1606,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1616,6 +1795,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1625,6 +1805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1634,6 +1815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1643,6 +1825,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1652,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1661,6 +1845,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1670,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1680,6 +1866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1689,6 +1876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1698,6 +1886,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1707,6 +1896,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1716,6 +1906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1725,6 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1734,6 +1926,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1743,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1753,6 +1947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1992,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1803,6 +2002,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1812,6 +2012,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +2024,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1832,6 +2034,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1841,6 +2044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1850,6 +2054,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1860,6 +2065,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1968,215 +2174,344 @@
     <t>0</t>
   </si>
   <si>
+    <t>dashboardId</t>
+  </si>
+  <si>
+    <t>dashboardName</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hpfm_lov-9</t>
+  </si>
+  <si>
+    <t>IAM.GROUP_ID</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>卡片分类</t>
+  </si>
+  <si>
+    <t>LOV独立值集表</t>
+  </si>
+  <si>
+    <t>hpfm_lov_value</t>
+  </si>
+  <si>
+    <t>*lov_value_id</t>
+  </si>
+  <si>
+    <t>#lov_id</t>
+  </si>
+  <si>
+    <t>lov_code</t>
+  </si>
+  <si>
+    <t>#value</t>
+  </si>
+  <si>
+    <t>meaning:zh_CN</t>
+  </si>
+  <si>
+    <t>meaning:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>order_seq</t>
+  </si>
+  <si>
+    <t>#parent_value</t>
+  </si>
+  <si>
+    <t>start_date_active(DATE)</t>
+  </si>
+  <si>
+    <t>end_date_active(DATE)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>敏捷管理</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>backlog</t>
+  </si>
+  <si>
+    <t>需求管理</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>DevOps管理</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>resource-management</t>
+  </si>
+  <si>
+    <t>资源管理</t>
+  </si>
+  <si>
+    <t>值集查询视图头表</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header</t>
+  </si>
+  <si>
+    <t>*view_header_id</t>
+  </si>
+  <si>
+    <t>#view_code</t>
+  </si>
+  <si>
+    <t>view_name:zh_CN</t>
+  </si>
+  <si>
+    <t>view_name:en_US</t>
+  </si>
+  <si>
+    <t>lov_id</t>
+  </si>
+  <si>
+    <t>title:zh_CN</t>
+  </si>
+  <si>
+    <t>title:en_US</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>page_size</t>
+  </si>
+  <si>
+    <t>delay_load_flag</t>
+  </si>
+  <si>
+    <t>children_field_name</t>
+  </si>
+  <si>
+    <t>平台内置卡片</t>
+  </si>
+  <si>
+    <t>值集查询视图行表</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line</t>
+  </si>
+  <si>
+    <t>*view_line_id</t>
+  </si>
+  <si>
+    <t>#view_header_id</t>
+  </si>
+  <si>
+    <t>display:zh_CN</t>
+  </si>
+  <si>
+    <t>display:en_US</t>
+  </si>
+  <si>
+    <t>#field_name</t>
+  </si>
+  <si>
+    <t>query_field_flag</t>
+  </si>
+  <si>
+    <t>table_field_flag</t>
+  </si>
+  <si>
+    <t>table_field_width</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-16</t>
+  </si>
+  <si>
+    <t>视图名称</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>hpfm_lov-10</t>
+  </si>
+  <si>
+    <t>IAM.TENANT.ROLE.NO.ENCRYPT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>查租户角色，不带加密</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tenant role without encrypt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>/choerodon/v1/{organizationId}/roles/paging</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypt_field</t>
+  </si>
+  <si>
+    <t>public_flag</t>
+  </si>
+  <si>
+    <t>decrypt_field</t>
+  </si>
+  <si>
+    <t>request_method</t>
+  </si>
+  <si>
     <t>/v1/dashboards/internal</t>
-  </si>
-  <si>
-    <t>dashboardId</t>
-  </si>
-  <si>
-    <t>dashboardName</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_lov-9</t>
-  </si>
-  <si>
-    <t>IAM.GROUP_ID</t>
-  </si>
-  <si>
-    <t>IDP</t>
-  </si>
-  <si>
-    <t>卡片分类</t>
-  </si>
-  <si>
-    <t>LOV独立值集表</t>
-  </si>
-  <si>
-    <t>hpfm_lov_value</t>
-  </si>
-  <si>
-    <t>*lov_value_id</t>
-  </si>
-  <si>
-    <t>#lov_id</t>
-  </si>
-  <si>
-    <t>lov_code</t>
-  </si>
-  <si>
-    <t>#value</t>
-  </si>
-  <si>
-    <t>meaning:zh_CN</t>
-  </si>
-  <si>
-    <t>meaning:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>order_seq</t>
-  </si>
-  <si>
-    <t>#parent_value</t>
-  </si>
-  <si>
-    <t>start_date_active(DATE)</t>
-  </si>
-  <si>
-    <t>end_date_active(DATE)</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>敏捷管理</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>backlog</t>
-  </si>
-  <si>
-    <t>需求管理</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>devops</t>
-  </si>
-  <si>
-    <t>DevOps管理</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>resource-management</t>
-  </si>
-  <si>
-    <t>资源管理</t>
-  </si>
-  <si>
-    <t>值集查询视图头表</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header</t>
-  </si>
-  <si>
-    <t>*view_header_id</t>
-  </si>
-  <si>
-    <t>#view_code</t>
-  </si>
-  <si>
-    <t>view_name:zh_CN</t>
-  </si>
-  <si>
-    <t>view_name:en_US</t>
-  </si>
-  <si>
-    <t>lov_id</t>
-  </si>
-  <si>
-    <t>title:zh_CN</t>
-  </si>
-  <si>
-    <t>title:en_US</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>page_size</t>
-  </si>
-  <si>
-    <t>delay_load_flag</t>
-  </si>
-  <si>
-    <t>children_field_name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM.INTERNAL_DASHBOARD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台内置视图</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-14</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>hpfm_lov_view_header-13</t>
-  </si>
-  <si>
-    <t>平台内置卡片</t>
-  </si>
-  <si>
-    <t>值集查询视图行表</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line</t>
-  </si>
-  <si>
-    <t>*view_line_id</t>
-  </si>
-  <si>
-    <t>#view_header_id</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>display:zh_CN</t>
-  </si>
-  <si>
-    <t>display:en_US</t>
-  </si>
-  <si>
-    <t>#field_name</t>
-  </si>
-  <si>
-    <t>query_field_flag</t>
-  </si>
-  <si>
-    <t>table_field_flag</t>
-  </si>
-  <si>
-    <t>table_field_width</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-16</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-17</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>Role Name</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-18</t>
+  </si>
+  <si>
+    <t>角色层级</t>
+  </si>
+  <si>
+    <t>Role Level</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>levelMeaning</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-19</t>
+  </si>
+  <si>
+    <t>角色编码</t>
+  </si>
+  <si>
+    <t>Role code</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-20</t>
+  </si>
+  <si>
+    <t>角色路径</t>
+  </si>
+  <si>
+    <t>Role path</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelPath</t>
+  </si>
+  <si>
+    <t>tenant_id:zh_CN</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>视图名称</t>
-  </si>
-  <si>
-    <t>200</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2187,25 +2522,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2218,6 +2553,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2225,187 +2561,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2425,28 +2616,45 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2477,194 +2685,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2765,254 +2787,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3027,15 +2807,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3049,9 +2820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3061,9 +2829,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3084,59 +2849,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3209,6 +2943,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3466,279 +3203,279 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3541666666667" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.3541666666667" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.3541666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="24"/>
+    <row r="2" spans="1:8">
+      <c r="E2" s="20"/>
     </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
-    <row r="4" ht="17" spans="3:7">
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="28"/>
     </row>
-    <row r="9" ht="51" spans="3:6">
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:8" ht="57">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51" spans="3:5">
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="1:8" ht="57">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="68" spans="3:5">
-      <c r="C11" s="15" t="s">
+    <row r="11" spans="1:8" ht="76">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="3:5">
-      <c r="C12" s="15" t="s">
+    <row r="12" spans="1:8" ht="19">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="33"/>
+    <row r="13" spans="1:8">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="33"/>
+    <row r="14" spans="1:8">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="28"/>
     </row>
-    <row r="15" ht="34" spans="3:5">
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="1:8" ht="38">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="3:5">
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
-    <row r="20" ht="17" spans="3:4">
-      <c r="C20" s="23" t="s">
+    <row r="20" spans="3:5">
+      <c r="C20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="3:4">
-      <c r="C21" s="23" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="3:4">
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="3:4">
-      <c r="C23" s="23" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="25" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="33"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="16" t="s">
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="33"/>
     </row>
-    <row r="27" ht="51" spans="3:3">
-      <c r="C27" s="26" t="s">
+    <row r="27" spans="3:5" ht="57">
+      <c r="C27" s="22" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:V22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="27.2847222222222" customWidth="1"/>
-    <col min="6" max="6" width="31.1388888888889" customWidth="1"/>
-    <col min="7" max="7" width="30.2847222222222" customWidth="1"/>
-    <col min="8" max="8" width="20.3680555555556" customWidth="1"/>
-    <col min="9" max="9" width="22.3402777777778" customWidth="1"/>
-    <col min="10" max="10" width="24.8819444444444" customWidth="1"/>
-    <col min="11" max="11" width="57.6388888888889" customWidth="1"/>
-    <col min="12" max="12" width="46.1736111111111" customWidth="1"/>
-    <col min="14" max="14" width="19.3263888888889" customWidth="1"/>
-    <col min="17" max="17" width="24.0763888888889" customWidth="1"/>
-    <col min="18" max="18" width="22.9166666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57.5703125" customWidth="1"/>
+    <col min="12" max="12" width="46.140625" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3752,7 +3489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:26">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3763,7 +3500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3830,22 +3567,34 @@
       <c r="V7" t="s">
         <v>71</v>
       </c>
+      <c r="W7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="8" spans="5:21">
+    <row r="8" spans="1:26">
       <c r="E8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
+      <c r="F8" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>154</v>
       </c>
       <c r="H8" t="s">
         <v>75</v>
       </c>
-      <c r="I8" t="s">
-        <v>76</v>
+      <c r="I8" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="J8" t="s">
         <v>76</v>
@@ -3859,490 +3608,781 @@
       <c r="M8" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="R8" t="s">
         <v>78</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>79</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>80</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="E9" t="s">
         <v>81</v>
       </c>
-      <c r="U8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="5:21">
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>83</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>84</v>
       </c>
-      <c r="I9" t="s">
-        <v>85</v>
-      </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
         <v>77</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="37" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
+    <row r="10" spans="1:26">
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G12" t="s">
         <v>89</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I12" t="s">
         <v>91</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J12" t="s">
         <v>92</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
         <v>93</v>
       </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O12" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q12" t="s">
         <v>96</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R12" t="s">
         <v>97</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="E13" t="s">
         <v>98</v>
-      </c>
-      <c r="S11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="5:19">
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="5:19">
-      <c r="E13" t="s">
-        <v>99</v>
       </c>
       <c r="F13" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="M13" t="s">
         <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:19">
+    <row r="14" spans="1:26">
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
         <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="S14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:19">
+    <row r="15" spans="1:26">
       <c r="E15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s">
         <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:19">
+    <row r="16" spans="1:26">
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
         <v>112</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>50</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>113</v>
       </c>
-      <c r="J16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>50</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
+      <c r="D19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R19" t="s">
+        <v>124</v>
+      </c>
+      <c r="S19" t="s">
+        <v>125</v>
+      </c>
+      <c r="T19" t="s">
+        <v>126</v>
+      </c>
+      <c r="U19" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>125</v>
-      </c>
-      <c r="R18" t="s">
-        <v>126</v>
-      </c>
-      <c r="S18" t="s">
-        <v>127</v>
-      </c>
-      <c r="T18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="5:20">
-      <c r="E19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" t="s">
+    <row r="20" spans="1:21">
+      <c r="E20" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" t="s">
         <v>73</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>76</v>
       </c>
-      <c r="H19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" t="str">
+      <c r="H20" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>77</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" t="s">
         <v>79</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N20" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" t="s">
+        <v>127</v>
+      </c>
+      <c r="R20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U20" t="s">
         <v>80</v>
       </c>
-      <c r="M19" t="s">
+    </row>
+    <row r="21" spans="1:21">
+      <c r="E21" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" t="s">
+        <v>156</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="R21" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" t="s">
+        <v>77</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N19" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>102</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="E23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N23" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" t="str">
+        <f>值集数据!$E$20</f>
+        <v>hpfm_lov_view_header-13</v>
+      </c>
+      <c r="G24" t="s">
         <v>77</v>
       </c>
-      <c r="T19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" t="s">
-        <v>138</v>
-      </c>
-      <c r="N21" t="s">
-        <v>139</v>
-      </c>
-      <c r="O21" t="s">
-        <v>140</v>
-      </c>
-      <c r="P21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="5:16">
-      <c r="E22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" t="str">
-        <f>值集数据!$E$19</f>
-        <v>hpfm_lov_view_header-13</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H24" t="s">
         <v>77</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I24" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
-      <c r="I22" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="J24" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" t="s">
         <v>80</v>
       </c>
-      <c r="M22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" t="s">
-        <v>143</v>
-      </c>
-      <c r="P22" t="s">
-        <v>81</v>
+      <c r="O24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="str">
+        <f>值集数据!$E$21</f>
+        <v>hpfm_lov_view_header-14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="E26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" t="str">
+        <f>值集数据!$E$21</f>
+        <v>hpfm_lov_view_header-14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26" t="s">
+        <v>169</v>
+      </c>
+      <c r="N26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" t="str">
+        <f>值集数据!$E$21</f>
+        <v>hpfm_lov_view_header-14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" t="s">
+        <v>174</v>
+      </c>
+      <c r="M27" t="s">
+        <v>175</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="str">
+        <f>值集数据!$E$21</f>
+        <v>hpfm_lov_view_header-14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" t="s">
+        <v>174</v>
+      </c>
+      <c r="M28" t="s">
+        <v>179</v>
+      </c>
+      <c r="N28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>